--- a/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
+++ b/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="24915" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="24915" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD22"/>
     </sheetView>
   </sheetViews>
@@ -564,7 +564,7 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
+++ b/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\endo-learn\PDiCCpDoC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\endo-learn\PDiCCpDoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F141827E-403D-4277-8309-5C9874DADF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="24915" windowHeight="11835"/>
+    <workbookView xWindow="16095" yWindow="1035" windowWidth="31950" windowHeight="21345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>PDiCCpDoC Perc Decline in Capacity Cost per Doubling of Capacity</t>
   </si>
@@ -40,9 +41,6 @@
     <t>coal</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -91,9 +89,6 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>Perc Decline per Doubling (dimensionless)</t>
-  </si>
-  <si>
     <t>Bloomberg New Energy Finance Summit 2017 Keynote</t>
   </si>
   <si>
@@ -104,13 +99,25 @@
   </si>
   <si>
     <t>Learning Rates</t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless</t>
+  </si>
+  <si>
+    <t>Perc Decline per Doubling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +137,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -174,6 +189,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -268,6 +284,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -303,6 +336,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,79 +528,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.73046875" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -558,28 +606,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1328125" customWidth="1"/>
-    <col min="2" max="2" width="26.86328125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -587,127 +636,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="B8" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4">
         <v>0.19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
+++ b/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\endo-learn\PDiCCpDoC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\endo-learn\PDiCCpDoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F141827E-403D-4277-8309-5C9874DADF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE76494-0650-48A6-9787-ED45AD197910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16095" yWindow="1035" windowWidth="31950" windowHeight="21345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="PDiCCpDoC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>PDiCCpDoC Perc Decline in Capacity Cost per Doubling of Capacity</t>
   </si>
@@ -111,6 +111,24 @@
   </si>
   <si>
     <t>Perc Decline per Doubling</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -184,12 +202,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -209,9 +227,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -249,9 +267,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,26 +302,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,26 +337,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -557,7 +541,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2017</v>
       </c>
     </row>
@@ -567,7 +551,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -610,9 +594,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -621,7 +607,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -632,7 +618,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
@@ -640,7 +626,7 @@
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>0</v>
       </c>
     </row>
@@ -648,7 +634,7 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
@@ -656,7 +642,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -664,7 +650,7 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>0</v>
       </c>
     </row>
@@ -672,7 +658,7 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>0.19</v>
       </c>
     </row>
@@ -680,7 +666,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>0.24</v>
       </c>
     </row>
@@ -688,7 +674,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
@@ -696,7 +682,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
@@ -704,7 +690,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>0</v>
       </c>
     </row>
@@ -712,7 +698,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>0</v>
       </c>
     </row>
@@ -720,7 +706,7 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>0</v>
       </c>
     </row>
@@ -728,7 +714,7 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -736,7 +722,7 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>0.19</v>
       </c>
     </row>
@@ -744,7 +730,7 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>0</v>
       </c>
     </row>
@@ -752,7 +738,7 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>0</v>
       </c>
     </row>
@@ -760,7 +746,55 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="7">
         <v>0</v>
       </c>
     </row>

--- a/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
+++ b/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\endo-learn\PDiCCpDoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE76494-0650-48A6-9787-ED45AD197910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C6F655-92E0-44E7-9579-174A17E96980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="PDiCCpDoC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>PDiCCpDoC Perc Decline in Capacity Cost per Doubling of Capacity</t>
   </si>
@@ -128,14 +141,17 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +179,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -208,6 +231,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -594,10 +620,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,10 +817,18 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="7">
         <v>0</v>
       </c>
     </row>
